--- a/org.wxd.boot.batis/src/test/resources/说明文件.xlsx
+++ b/org.wxd.boot.batis/src/test/resources/说明文件.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17775"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="格式说明文件" sheetId="4" r:id="rId1"/>
@@ -76,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0">
+    <comment ref="F5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -89,7 +89,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="0">
+    <comment ref="G5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -102,7 +102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G5" authorId="0">
+    <comment ref="H5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -116,7 +116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H5" authorId="0">
+    <comment ref="I5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
   <si>
     <t>vip礼包</t>
   </si>
@@ -151,6 +151,9 @@
     <t>all</t>
   </si>
   <si>
+    <t>no</t>
+  </si>
+  <si>
     <t>client</t>
   </si>
   <si>
@@ -212,6 +215,9 @@
   </si>
   <si>
     <t>商品内容</t>
+  </si>
+  <si>
+    <t>策划自己看的</t>
   </si>
   <si>
     <t>如果数据库关联字符串超长</t>
@@ -980,10 +986,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1000,14 +1006,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -1351,34 +1357,35 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="10.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="44" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.5" style="3" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="18" style="2" customWidth="1"/>
-    <col min="9" max="10" width="9" style="4"/>
-    <col min="11" max="11" width="48.375" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="4"/>
+    <col min="2" max="3" width="44" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.75" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="3" customWidth="1"/>
+    <col min="8" max="8" width="9.625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="18" style="2" customWidth="1"/>
+    <col min="10" max="11" width="9" style="4"/>
+    <col min="12" max="12" width="48.375" style="4" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="21" customHeight="1" spans="1:2">
+    <row r="1" s="1" customFormat="1" ht="21" customHeight="1" spans="1:3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6"/>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="C1" s="6"/>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -1389,13 +1396,13 @@
         <v>2</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>1</v>
@@ -1403,20 +1410,21 @@
       <c r="H2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="I2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="8" t="s">
         <v>7</v>
       </c>
+      <c r="C3" s="8"/>
       <c r="D3" s="8" t="s">
         <v>8</v>
       </c>
@@ -1432,28 +1440,29 @@
       <c r="H3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="I3" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="L3" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="8" t="s">
         <v>16</v>
       </c>
+      <c r="C4" s="8"/>
       <c r="D4" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>19</v>
@@ -1461,168 +1470,178 @@
       <c r="H4" s="8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="9">
         <v>1</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>30</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C6" s="10"/>
       <c r="D6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="9">
+        <v>32</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="9">
         <v>0</v>
       </c>
-      <c r="F6" s="11" t="b">
+      <c r="G6" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="G6" s="9">
+      <c r="H6" s="9">
         <v>1</v>
       </c>
-      <c r="H6" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="9">
         <v>2</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>33</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C7" s="10"/>
       <c r="D7" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="9">
+        <v>35</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="9">
         <v>0</v>
       </c>
-      <c r="F7" s="11" t="b">
+      <c r="G7" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="G7" s="9">
+      <c r="H7" s="9">
         <v>1</v>
       </c>
-      <c r="H7" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="9">
         <v>3</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>36</v>
-      </c>
+      <c r="B8" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="12"/>
       <c r="D8" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="9">
+        <v>38</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="9">
         <v>0</v>
       </c>
-      <c r="F8" s="11" t="b">
+      <c r="G8" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="G8" s="9">
+      <c r="H8" s="9">
         <v>1</v>
       </c>
-      <c r="H8" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" s="14"/>
-    </row>
-    <row r="10" spans="11:11">
-      <c r="K10" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="11:11">
-      <c r="K11" s="4" t="s">
+      <c r="I8" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="11:11">
-      <c r="K12" s="4" t="s">
+    <row r="9" spans="2:3">
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+    </row>
+    <row r="10" spans="12:12">
+      <c r="L10" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="11:11">
-      <c r="K13" s="4" t="s">
+    <row r="11" spans="12:12">
+      <c r="L11" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="11:11">
-      <c r="K14" s="4" t="s">
+    <row r="12" spans="12:12">
+      <c r="L12" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="11:11">
-      <c r="K15" s="4" t="s">
+    <row r="13" spans="12:12">
+      <c r="L13" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="11:11">
-      <c r="K16" s="4" t="s">
+    <row r="14" spans="12:12">
+      <c r="L14" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="11:11">
-      <c r="K17" s="4" t="s">
+    <row r="15" spans="12:12">
+      <c r="L15" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="11:11">
-      <c r="K18"/>
-    </row>
-    <row r="19" spans="11:11">
-      <c r="K19" s="15"/>
-    </row>
-    <row r="20" spans="11:11">
-      <c r="K20" s="15"/>
-    </row>
-    <row r="21" spans="11:11">
-      <c r="K21" s="15"/>
-    </row>
-    <row r="22" spans="11:11">
-      <c r="K22" s="15"/>
+    <row r="16" spans="12:12">
+      <c r="L16" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="12:12">
+      <c r="L17" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="12:12">
+      <c r="L18"/>
+    </row>
+    <row r="19" spans="12:12">
+      <c r="L19" s="15"/>
+    </row>
+    <row r="20" spans="12:12">
+      <c r="L20" s="15"/>
+    </row>
+    <row r="21" spans="12:12">
+      <c r="L21" s="15"/>
+    </row>
+    <row r="22" spans="12:12">
+      <c r="L22" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1631,7 +1650,7 @@
   <conditionalFormatting sqref="A3">
     <cfRule type="duplicateValues" dxfId="0" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B1048576">
+  <conditionalFormatting sqref="B2:C1048576">
     <cfRule type="containsText" dxfId="1" priority="1" operator="between" text="102133005">
       <formula>NOT(ISERROR(SEARCH("102133005",B2)))</formula>
     </cfRule>
